--- a/Reports/AreDifferent/decryption_hotWater_byHouse2/decryption_hotWater.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater_byHouse2/decryption_hotWater.xlsx
@@ -458,6 +458,9 @@
     <xf numFmtId="4" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,9 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +774,8 @@
   </sheetPr>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,40 +818,40 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -983,7 +983,7 @@
       <c r="K6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="43"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="35"/>
       <c r="P6" s="13" t="s">
         <v>22</v>
@@ -1035,28 +1035,28 @@
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:25" ht="15.75">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="25.5">
+    <row r="10" spans="1:25" ht="38.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,6 +1228,9 @@
       </c>
       <c r="X12" s="32" t="s">
         <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25">
